--- a/Personal Budget - English.xlsx
+++ b/Personal Budget - English.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Personal_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ED089A-2893-43FC-8489-437325FF918D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A79EEA-D0B5-4CF5-9F19-34399A3DE9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <definedName name="Investments">'Data Validation'!$G$19:$G$20</definedName>
     <definedName name="Months">'Data Validation'!$M$5:$M$16</definedName>
     <definedName name="Net_Salary">'Data Validation'!$I$5:$I$16</definedName>
-    <definedName name="Payment">'Data Validation'!$K$11</definedName>
+    <definedName name="Payment">'Data Validation'!$B$9:$B$10</definedName>
     <definedName name="Transfer">'Data Validation'!$B$5:$B$8</definedName>
     <definedName name="Z_12641207_4FA9_4498_AEA1_9BC1962A4F9A_.wvu.Rows" localSheetId="3" hidden="1">Expenses!$6:$6,Expenses!#REF!</definedName>
   </definedNames>
@@ -348,7 +348,7 @@
     <t>Invest. Income</t>
   </si>
   <si>
-    <t>Future Debt</t>
+    <t>Debt</t>
   </si>
 </sst>
 </file>
@@ -860,14 +860,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7720,17 +7720,17 @@
       <c r="I11" s="61" t="str">
         <v>Tax II</v>
       </c>
-      <c r="K11" s="61" t="str">
-        <f>B10</f>
-        <v>Credit Card</v>
+      <c r="K11" s="61" t="str" cm="1">
+        <f t="array" ref="K11:K12">Payment</f>
+        <v>Debt</v>
       </c>
       <c r="M11" s="61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
       <c r="E12" s="60" t="s">
         <v>83</v>
       </c>
@@ -7740,13 +7740,16 @@
       <c r="I12" s="61" t="str">
         <v>Bank Fee I</v>
       </c>
+      <c r="K12" s="61" t="str">
+        <v>Credit Card</v>
+      </c>
       <c r="M12" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
       <c r="E13" s="60" t="s">
         <v>80</v>
       </c>
@@ -7761,8 +7764,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
       <c r="E14" s="60" t="s">
         <v>52</v>
       </c>
@@ -7777,8 +7780,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
       <c r="E15" s="60" t="s">
         <v>78</v>
       </c>
@@ -7794,8 +7797,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
       <c r="E16" s="60" t="s">
         <v>49</v>
       </c>
@@ -7810,19 +7813,19 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
     </row>
     <row r="18" spans="2:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
       <c r="G18" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
       <c r="G19" s="60" t="s">
         <v>60</v>
       </c>
@@ -7876,7 +7879,7 @@
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="77" t="str">
         <f ca="1">IF($C$7="",PROPER(TEXT(TODAY(),"MMMM")),PROPER(TEXT($C$7,"MMMM")))</f>
-        <v>Março</v>
+        <v>Abril</v>
       </c>
       <c r="C2" s="77" t="s">
         <v>0</v>
@@ -7945,7 +7948,7 @@
       </c>
       <c r="C7" s="81">
         <f ca="1">TODAY()</f>
-        <v>45746</v>
+        <v>45755</v>
       </c>
       <c r="E7" s="47" t="str">
         <v>Insurance</v>
@@ -7959,7 +7962,7 @@
         <v>Bank 1</v>
       </c>
       <c r="C8" s="82" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">ROUND(SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Account],B8,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Account],B8,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Amount],Tabela1[Category],B8,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B8,'Data Validation'!B5:C10,2,FALSE),2)</f>
+        <f t="array" aca="1" ref="C8" ca="1">ROUND(SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Account],B8,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Account],B8,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Amount],Tabela1[Category],B8,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B8,'Data Validation'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E8" s="47" t="str">
@@ -7973,7 +7976,7 @@
         <v>Bank 2</v>
       </c>
       <c r="C9" s="82" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">ROUND(SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Account],B9,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Account],B9,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Amount],Tabela1[Category],B9,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B9,'Data Validation'!B6:C11,2,FALSE),2)</f>
+        <f t="array" aca="1" ref="C9" ca="1">ROUND(SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Account],B9,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Account],B9,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Amount],Tabela1[Category],B9,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B9,'Data Validation'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E9" s="47" t="str">
@@ -7988,7 +7991,7 @@
         <v>Cash</v>
       </c>
       <c r="C10" s="82" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">ROUND(SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Account],B10,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Account],B10,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Amount],Tabela1[Category],B10,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B10,'Data Validation'!B7:C12,2,FALSE),2)</f>
+        <f t="array" aca="1" ref="C10" ca="1">ROUND(SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Account],B10,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Account],B10,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Amount],Tabela1[Category],B10,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B10,'Data Validation'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E10" s="47" t="str">
@@ -8003,7 +8006,7 @@
         <v>Savings</v>
       </c>
       <c r="C11" s="82" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">ROUND(SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Account],B11,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Account],B11,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Amount],Tabela1[Category],B11,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B11,'Data Validation'!B8:C13,2,FALSE),2)</f>
+        <f t="array" aca="1" ref="C11" ca="1">ROUND(SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Account],B11,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Account],B11,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Amount],Tabela1[Category],B11,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B11,'Data Validation'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E11" s="47" t="str">
@@ -8015,10 +8018,10 @@
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="44"/>
       <c r="B12" s="78" t="str">
-        <v>Future Debt</v>
-      </c>
-      <c r="C12" s="27" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">ROUND(SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Account],B12,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Account],B12,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Amount],Tabela1[Category],B12,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B12,'Data Validation'!B9:C14,2,FALSE),2)</f>
+        <v>Debt</v>
+      </c>
+      <c r="C12" s="27">
+        <f ca="1">ROUND(SUMIFS(Tabela1[Amount],Tabela1[Operation],"Expenses",Tabela1[Account],B12,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"Payment",Tabela1[Category],B12,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B12,'Data Validation'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E12" s="47" t="str">
@@ -8033,7 +8036,7 @@
         <v>Credit Card</v>
       </c>
       <c r="C13" s="27">
-        <f ca="1">ROUND(-SUMIFS(Tabela1[Amount],Tabela1[Account],B13,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+SUMIFS(Tabela1[Amount],Tabela1[Category],B13,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B13,'Data Validation'!B5:C10,2,FALSE),2)</f>
+        <f ca="1">ROUND(SUMIFS(Tabela1[Amount],Tabela1[Operation],"Expenses",Tabela1[Account],B13,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK(C7),TODAY(),C7)))-SUMIFS(Tabela1[Amount],Tabela1[Category],B13,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK(C7),TODAY(),C7)))+VLOOKUP(B13,'Data Validation'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E13" s="47" t="str">
@@ -11326,10 +11329,10 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C3">
     <cfRule type="expression" dxfId="9" priority="1">
-      <formula>ROUND($C$3-SUM($C$8:$C$13),2)&lt;&gt;0</formula>
+      <formula>ROUND($C$3-SUM($C$8:$C$11)+SUM($C$12:$C$13),2)&lt;&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="2">
-      <formula>ROUND($C$3-SUM($C$8:$C$13),2)=0</formula>
+      <formula>ROUND($C$3-SUM($C$8:$C$11)+SUM($C$12:$C$13),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
@@ -11376,7 +11379,7 @@
       <formula>$D16="Discount"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{60D5F252-CE9E-4A5F-916C-4BCED7BE4850}">
       <formula1>"Expenses, Net Salary"</formula1>
     </dataValidation>
@@ -11451,7 +11454,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="65">
-        <f>SUM('Data Validation'!C5:C8)-'Data Validation'!C10</f>
+        <f>SUM('Data Validation'!C5:C8)-SUM('Data Validation'!C9:C10)</f>
         <v>0</v>
       </c>
     </row>
@@ -13260,15 +13263,15 @@
       <c r="I2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="96"/>
+      <c r="L2" s="97"/>
       <c r="M2" s="16"/>
-      <c r="N2" s="95" t="s">
+      <c r="N2" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="96"/>
+      <c r="O2" s="97"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="str" cm="1">

--- a/Personal Budget - English.xlsx
+++ b/Personal Budget - English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Personal_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A79EEA-D0B5-4CF5-9F19-34399A3DE9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CBE15A-D4C2-471E-A739-438914DA6B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="C7" s="81">
         <f ca="1">TODAY()</f>
-        <v>45755</v>
+        <v>45757</v>
       </c>
       <c r="E7" s="47" t="str">
         <v>Insurance</v>
@@ -8036,7 +8036,7 @@
         <v>Credit Card</v>
       </c>
       <c r="C13" s="27">
-        <f ca="1">ROUND(SUMIFS(Tabela1[Amount],Tabela1[Operation],"Expenses",Tabela1[Account],B13,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK(C7),TODAY(),C7)))-SUMIFS(Tabela1[Amount],Tabela1[Category],B13,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK(C7),TODAY(),C7)))+VLOOKUP(B13,'Data Validation'!$B$5:$C$10,2,FALSE),2)</f>
+        <f ca="1">ROUND(SUMIFS(Tabela1[Amount],Tabela1[Operation],"Expenses",Tabela1[Account],B13,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"Payment",Tabela1[Category],B13,Tabela1[Date],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B13,'Data Validation'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E13" s="47" t="str">
